--- a/builder-eo/src/main/resources/eo.xlsx
+++ b/builder-eo/src/main/resources/eo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder-eo/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD14948-7228-4945-B7CF-1B0BDF0485DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB16DF1-9896-E84E-A4BB-378C68614AB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="480" windowWidth="28240" windowHeight="17540" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="1240" yWindow="1120" windowWidth="28240" windowHeight="17540" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -3033,9 +3033,6 @@
     <t>javaGet4Bean</t>
   </si>
   <si>
-    <t>DbSqlConfigInterface, BaseBeanInterface</t>
-  </si>
-  <si>
     <t>{
       "javaDescription": {"default":true, "final": true, "jsonIgnore": true, "transient": true},
       "javaGet4Bean": {"default":true, "final": true, "jsonIgnore": true, "transient": true},
@@ -3057,6 +3054,9 @@
   </si>
   <si>
     <t>expose, module, moduleScope, scope, configModelKey, properties</t>
+  </si>
+  <si>
+    <t>DbSqlConfigInterface,BaseBeanInterface</t>
   </si>
 </sst>
 </file>
@@ -3445,13 +3445,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3522,7 +3523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>146</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>417</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>150</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>418</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>742</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>42725</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>873</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>744</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>782</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>153</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>534</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="255" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>156</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>157</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>158</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>239</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>696</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>876</v>
@@ -4136,7 +4137,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>876</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>162</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>743</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>783</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>621</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>165</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>454</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>614</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>619</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>667</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>615</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>370</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>574</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>371</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>42707</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>520</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>42707</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>521</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>42707</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>374</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>812</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>814</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>35</v>
@@ -5468,7 +5469,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>460</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="119" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>485</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>498</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="119" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>459</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>632</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>44128</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>131</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>172</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>174</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>45</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>694</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>44174</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>767</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>746</v>
       </c>
@@ -5902,7 +5903,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="372" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="372" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>822</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>746</v>
@@ -5938,7 +5939,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>824</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>177</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>748</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>752</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>753</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>606</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>178</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>787</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>44083</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>747</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="85" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>623</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>44108</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>181</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>44108</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>132</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>44108</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="85" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>712</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>719</v>
       </c>
@@ -6522,7 +6523,7 @@
       </c>
       <c r="P82" s="6"/>
     </row>
-    <row r="83" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>711</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>44121</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>720</v>
       </c>
@@ -6595,7 +6596,7 @@
       </c>
       <c r="P84" s="6"/>
     </row>
-    <row r="85" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>714</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>717</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>722</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>715</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>455</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>44108</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>32</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>796</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>909</v>
       </c>
@@ -6882,7 +6883,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>608</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>182</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>790</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>44093</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>789</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>67</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>120</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>625</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>78</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>188</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>190</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>191</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>192</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="238" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>335</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>83</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>573</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>85</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>39</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>195</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="404" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="404" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>756</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>697</v>
       </c>
@@ -7517,7 +7518,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>768</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>823</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>11</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>756</v>
@@ -7592,7 +7593,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="238" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>197</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>579</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>580</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="340" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="340" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>482</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>755</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>199</v>
       </c>
@@ -7806,7 +7807,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>201</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>203</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>205</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>207</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>209</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>210</v>
       </c>
@@ -7995,7 +7996,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>133</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>56</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>212</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>214</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>785</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>914</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>786</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>788</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>794</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>545</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>217</v>
       </c>
@@ -8374,7 +8375,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="125" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>220</v>
       </c>
@@ -8406,7 +8407,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>125</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>222</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>636</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>223</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>664</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>44123</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>13</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>44041</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>225</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>44100</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>226</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>227</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="118" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>737</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>736</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>229</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>409</v>
       </c>
@@ -8868,7 +8869,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>415</v>
       </c>
@@ -8905,7 +8906,7 @@
       </c>
       <c r="S152" s="7"/>
     </row>
-    <row r="153" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>231</v>
       </c>
@@ -8942,7 +8943,7 @@
       </c>
       <c r="S153" s="7"/>
     </row>
-    <row r="154" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>233</v>
       </c>
@@ -8979,7 +8980,7 @@
       </c>
       <c r="S154" s="7"/>
     </row>
-    <row r="155" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>234</v>
       </c>
@@ -9019,7 +9020,7 @@
       </c>
       <c r="S155" s="7"/>
     </row>
-    <row r="156" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>528</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>236</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>399</v>
       </c>
@@ -9125,7 +9126,7 @@
       </c>
       <c r="S158" s="7"/>
     </row>
-    <row r="159" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>250</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>583</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>237</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>253</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>819</v>
       </c>
@@ -9312,7 +9313,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>256</v>
       </c>
@@ -9352,6 +9353,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N164" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="eo-db"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:N151">
       <sortCondition ref="A2:A151"/>
     </sortState>

--- a/builder-eo/src/main/resources/eo.xlsx
+++ b/builder-eo/src/main/resources/eo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder-eo/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB16DF1-9896-E84E-A4BB-378C68614AB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A566F-D201-1043-9D08-A9D868C4078A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1120" windowWidth="28240" windowHeight="17540" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="560" yWindow="480" windowWidth="28240" windowHeight="17540" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -1816,9 +1816,6 @@
     <t>ListProperties</t>
   </si>
   <si>
-    <t>CsvProperties</t>
-  </si>
-  <si>
     <t>Defines access to list properties in configurations.</t>
   </si>
   <si>
@@ -1842,9 +1839,6 @@
     <t>[
       "table", "naturalKeys", "idKey"
 ]</t>
-  </si>
-  <si>
-    <t>CsvProperties,ListProperties</t>
   </si>
   <si>
     <t>TreeMap</t>
@@ -3057,6 +3051,12 @@
   </si>
   <si>
     <t>DbSqlConfigInterface,BaseBeanInterface</t>
+  </si>
+  <si>
+    <t>CsvConfigInterface</t>
+  </si>
+  <si>
+    <t>CsvConfigInterface,ListProperties</t>
   </si>
 </sst>
 </file>
@@ -3449,10 +3449,10 @@
   <dimension ref="A1:S164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3537,7 +3537,7 @@
         <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>147</v>
@@ -3546,7 +3546,7 @@
         <v>146</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>148</v>
@@ -3557,7 +3557,7 @@
         <v>417</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
         <v>492</v>
@@ -3572,7 +3572,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>484</v>
@@ -3581,13 +3581,13 @@
         <v>417</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -3613,7 +3613,7 @@
         <v>42</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>150</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>151</v>
@@ -3650,7 +3650,7 @@
         <v>418</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
         <v>492</v>
@@ -3659,7 +3659,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>14</v>
@@ -3674,13 +3674,13 @@
         <v>418</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P6" s="6">
         <v>44155</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="7" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -3697,16 +3697,16 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>483</v>
@@ -3716,13 +3716,13 @@
         <v>BaseBean</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="P7" s="6">
         <v>42725</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="8" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -3739,10 +3739,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
@@ -3758,13 +3758,13 @@
         <v>BaseBeanInterface</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="P8" s="6">
         <v>44186</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="9" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3781,16 +3781,16 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>483</v>
@@ -3800,13 +3800,13 @@
         <v>BaseConfig</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="P9" s="6">
         <v>44186</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="10" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3823,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -3839,13 +3839,13 @@
         <v>BaseConfigInterface</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="P10" s="6">
         <v>44186</v>
@@ -3868,7 +3868,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>152</v>
@@ -3877,7 +3877,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>151</v>
@@ -3894,7 +3894,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -3909,7 +3909,7 @@
         <v>153</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>148</v>
@@ -3945,7 +3945,7 @@
         <v>CallContent</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>148</v>
@@ -3965,19 +3965,19 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>154</v>
@@ -3987,7 +3987,7 @@
         <v>CallImpl</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>148</v>
@@ -4020,7 +4020,7 @@
         <v>Class</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>151</v>
@@ -4050,7 +4050,7 @@
         <v>Condition</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>148</v>
@@ -4067,10 +4067,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>156</v>
@@ -4079,7 +4079,7 @@
         <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>163</v>
@@ -4089,7 +4089,7 @@
         <v>ConfigAsFlatListCall</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>148</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="18" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -4106,19 +4106,19 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>160</v>
@@ -4128,7 +4128,7 @@
         <v>ConfigBean</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>148</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="19" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -4148,10 +4148,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>35</v>
@@ -4167,7 +4167,7 @@
         <v>ConfigBeanInterface</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>148</v>
@@ -4190,7 +4190,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>165</v>
@@ -4209,7 +4209,7 @@
         <v>ConfigCall</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>148</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="21" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -4229,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>35</v>
@@ -4251,7 +4251,7 @@
         <v>ConfigConfig</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>148</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="22" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -4271,10 +4271,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>35</v>
@@ -4290,7 +4290,7 @@
         <v>ConfigConfigInterface</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>148</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="23" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -4316,17 +4316,17 @@
         <v>35</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>A23</f>
         <v>ConfigDirectoryReadCommand</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>148</v>
@@ -4343,10 +4343,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>156</v>
@@ -4355,7 +4355,7 @@
         <v>14</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>163</v>
@@ -4365,7 +4365,7 @@
         <v>ConfigKeysCall</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>148</v>
@@ -4382,7 +4382,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>455</v>
@@ -4401,7 +4401,7 @@
         <v>ConfigLinkCall</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>148</v>
@@ -4421,10 +4421,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>156</v>
@@ -4442,7 +4442,7 @@
         <v>167</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>148</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="27" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -4468,17 +4468,17 @@
         <v>35</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L27" s="2" t="str">
         <f>A27</f>
         <v>ConfigReadCommand</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>148</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="28" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -4504,17 +4504,17 @@
         <v>35</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L28" s="2" t="str">
         <f>A28</f>
         <v>ConfigReadWriteCommand</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>148</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="29" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -4537,17 +4537,17 @@
         <v>35</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L29" s="2" t="str">
         <f>A29</f>
         <v>ConfigsCommand</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>148</v>
@@ -4564,7 +4564,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>156</v>
@@ -4573,7 +4573,7 @@
         <v>14</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>163</v>
@@ -4582,7 +4582,7 @@
         <v>171</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>148</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="31" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -4608,23 +4608,23 @@
         <v>35</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>A31</f>
         <v>ConfigWriteCommand</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>370</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>582</v>
+        <v>937</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>178</v>
@@ -4644,16 +4644,16 @@
         <v>35</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>370</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>148</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="33" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>574</v>
+        <v>936</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -4670,23 +4670,23 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L33" s="2" t="str">
         <f>A33</f>
-        <v>CsvProperties</v>
+        <v>CsvConfigInterface</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>148</v>
@@ -4718,7 +4718,7 @@
         <v>371</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>148</v>
@@ -4738,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>335</v>
@@ -4760,7 +4760,7 @@
         <v>CsvSimpleReadCall</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>148</v>
@@ -4799,7 +4799,7 @@
         <v>CsvSimpleWriteCall</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>148</v>
@@ -4834,7 +4834,7 @@
         <v>374</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>148</v>
@@ -4866,12 +4866,12 @@
         <v>30</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="136" x14ac:dyDescent="0.2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>241</v>
@@ -4880,37 +4880,37 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>A39</f>
         <v>DbBean</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>241</v>
@@ -4919,7 +4919,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>35</v>
@@ -4928,20 +4928,20 @@
         <v>551</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="L40" s="2" t="str">
         <f>A40</f>
         <v>DbBeanInterface</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="204" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>240</v>
       </c>
@@ -4952,10 +4952,10 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>182</v>
@@ -4964,25 +4964,25 @@
         <v>35</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="L41" s="2" t="str">
         <f>A41</f>
         <v>DbConfig</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>241</v>
@@ -4991,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>35</v>
@@ -5000,20 +5000,20 @@
         <v>551</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="L42" s="2" t="str">
         <f>A42</f>
         <v>DbConfigInterface</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>540</v>
       </c>
@@ -5024,16 +5024,16 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>242</v>
@@ -5043,7 +5043,7 @@
         <v>DbModelCall</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>148</v>
@@ -5052,7 +5052,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>541</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>540</v>
@@ -5072,7 +5072,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>242</v>
@@ -5082,7 +5082,7 @@
         <v>DbModelDeleteCall</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>148</v>
@@ -5091,7 +5091,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>538</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>540</v>
@@ -5111,7 +5111,7 @@
         <v>14</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>242</v>
@@ -5121,7 +5121,7 @@
         <v>DbModelReadCall</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>148</v>
@@ -5130,7 +5130,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>539</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>540</v>
@@ -5150,7 +5150,7 @@
         <v>14</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>242</v>
@@ -5160,7 +5160,7 @@
         <v>DbModelWriteCall</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>148</v>
@@ -5169,9 +5169,9 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>241</v>
@@ -5180,13 +5180,13 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>35</v>
@@ -5202,7 +5202,7 @@
         <v>DbSqlBean</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>148</v>
@@ -5211,9 +5211,9 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>241</v>
@@ -5222,16 +5222,16 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>242</v>
@@ -5241,13 +5241,13 @@
         <v>DbSqlBeanInterface</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>243</v>
       </c>
@@ -5261,13 +5261,13 @@
         <v>542</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>242</v>
@@ -5277,13 +5277,13 @@
         <v>DbSqlCall</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>244</v>
       </c>
@@ -5294,19 +5294,19 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>242</v>
@@ -5316,7 +5316,7 @@
         <v>DbSqlConfig</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>148</v>
@@ -5325,9 +5325,9 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>241</v>
@@ -5336,16 +5336,16 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>242</v>
@@ -5355,13 +5355,13 @@
         <v>DbSqlConfigInterface</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>537</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>243</v>
@@ -5391,13 +5391,13 @@
         <v>DbSqlExecuteCall</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>549</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>243</v>
@@ -5417,7 +5417,7 @@
         <v>14</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>242</v>
@@ -5427,7 +5427,7 @@
         <v>DbSqlReadCall</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>148</v>
@@ -5436,7 +5436,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>246</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>DbTypes</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>148</v>
@@ -5496,7 +5496,7 @@
         <v>DirectoryConfig</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>148</v>
@@ -5513,7 +5513,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>180</v>
@@ -5532,7 +5532,7 @@
         <v>DirectoryListReadCall</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>148</v>
@@ -5571,7 +5571,7 @@
         <v>DirectoryMapReadCall</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>148</v>
@@ -5594,7 +5594,7 @@
         <v>461</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>180</v>
@@ -5603,7 +5603,7 @@
         <v>14</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>179</v>
@@ -5613,7 +5613,7 @@
         <v>DirectoryReadCall</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>148</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="59" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -5642,7 +5642,7 @@
         <v>14</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>179</v>
@@ -5652,7 +5652,7 @@
         <v>DirectoryWriteCall</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>148</v>
@@ -5684,7 +5684,7 @@
         <v>131</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -5713,7 +5713,7 @@
         <v>172</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>148</v>
@@ -5742,7 +5742,7 @@
         <v>174</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>148</v>
@@ -5774,7 +5774,7 @@
         <v>45</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>148</v>
@@ -5782,28 +5782,28 @@
     </row>
     <row r="64" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>696</v>
-      </c>
       <c r="I64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>160</v>
@@ -5813,7 +5813,7 @@
         <v>FieldBean</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>148</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="65" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>301</v>
@@ -5833,16 +5833,16 @@
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>160</v>
@@ -5852,7 +5852,7 @@
         <v>FieldBeanGen</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>148</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="66" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -5872,16 +5872,16 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>160</v>
@@ -5891,7 +5891,7 @@
         <v>FieldBeanInterface</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>148</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="67" spans="1:19" ht="372" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>301</v>
@@ -5914,16 +5914,16 @@
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>160</v>
@@ -5933,7 +5933,7 @@
         <v>FieldBeanInterface4Java</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>148</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="68" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>301</v>
@@ -5950,13 +5950,13 @@
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>160</v>
@@ -5966,7 +5966,7 @@
         <v>FieldBeanInterface4Javascript</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>148</v>
@@ -5983,19 +5983,19 @@
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>160</v>
@@ -6004,7 +6004,7 @@
         <v>177</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>148</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="70" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -6024,16 +6024,16 @@
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>160</v>
@@ -6043,7 +6043,7 @@
         <v>FieldConfigInterface</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>148</v>
@@ -6057,28 +6057,28 @@
     </row>
     <row r="71" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>179</v>
@@ -6088,7 +6088,7 @@
         <v>FileBean</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>148</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="72" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -6111,10 +6111,10 @@
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>35</v>
@@ -6130,7 +6130,7 @@
         <v>FileBeanInterface</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>148</v>
@@ -6144,25 +6144,25 @@
     </row>
     <row r="73" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="I73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>179</v>
@@ -6172,7 +6172,7 @@
         <v>FileCall</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>148</v>
@@ -6189,13 +6189,13 @@
         <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>35</v>
@@ -6210,7 +6210,7 @@
         <v>178</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>148</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="75" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
@@ -6233,10 +6233,10 @@
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>35</v>
@@ -6252,7 +6252,7 @@
         <v>FileConfigInterface</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>148</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="76" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -6272,7 +6272,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>35</v>
@@ -6288,7 +6288,7 @@
         <v>FileConfigInterfaceMethods</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>148</v>
@@ -6311,16 +6311,16 @@
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>179</v>
@@ -6329,7 +6329,7 @@
         <v>180</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>148</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="78" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
@@ -6346,10 +6346,10 @@
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>156</v>
@@ -6358,7 +6358,7 @@
         <v>14</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>179</v>
@@ -6368,7 +6368,7 @@
         <v>FileReadWriteCall</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>148</v>
@@ -6388,13 +6388,13 @@
         <v>11</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>14</v>
@@ -6409,7 +6409,7 @@
         <v>181</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>148</v>
@@ -6441,7 +6441,7 @@
         <v>132</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S80" s="7">
         <v>44108</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="81" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>301</v>
@@ -6458,7 +6458,7 @@
         <v>11</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>156</v>
@@ -6467,7 +6467,7 @@
         <v>35</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>494</v>
@@ -6477,7 +6477,7 @@
         <v>GenerateAbstract</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>148</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="82" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>301</v>
@@ -6500,7 +6500,7 @@
         <v>495</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>35</v>
@@ -6516,7 +6516,7 @@
         <v>GenerateEoConfigJsonCall</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>148</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="83" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>301</v>
@@ -6534,16 +6534,16 @@
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>494</v>
@@ -6553,7 +6553,7 @@
         <v>GenerateModelAbstract</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>148</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="84" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>301</v>
@@ -6573,13 +6573,13 @@
         <v>11</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>494</v>
@@ -6589,7 +6589,7 @@
         <v>GenerateModelBeansJsonCall</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>148</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="85" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>301</v>
@@ -6607,16 +6607,16 @@
         <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>494</v>
@@ -6626,7 +6626,7 @@
         <v>GenerateModelProperties</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>148</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="86" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>301</v>
@@ -6643,13 +6643,13 @@
         <v>11</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>494</v>
@@ -6659,7 +6659,7 @@
         <v>GenerateModelTemplateCall</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>148</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="87" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>301</v>
@@ -6676,13 +6676,13 @@
         <v>11</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>494</v>
@@ -6692,7 +6692,7 @@
         <v>GenerateModelTemplateMapCall</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>148</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="88" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>301</v>
@@ -6709,7 +6709,7 @@
         <v>11</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>153</v>
@@ -6718,7 +6718,7 @@
         <v>35</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>494</v>
@@ -6728,7 +6728,7 @@
         <v>GenerateProperties</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>148</v>
@@ -6764,7 +6764,7 @@
         <v>GithubLinkCall</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>148</v>
@@ -6796,7 +6796,7 @@
         <v>32</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>151</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="91" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
@@ -6813,16 +6813,16 @@
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>154</v>
@@ -6832,7 +6832,7 @@
         <v>HostBean</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>148</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="92" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>10</v>
@@ -6855,10 +6855,10 @@
         <v>11</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>35</v>
@@ -6874,7 +6874,7 @@
         <v>HostBeanInterface</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>148</v>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="93" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -6894,7 +6894,7 @@
         <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>153</v>
@@ -6906,7 +6906,7 @@
         <v>35</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>154</v>
@@ -6916,7 +6916,7 @@
         <v>HostCall</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>148</v>
@@ -6933,10 +6933,10 @@
         <v>11</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>35</v>
@@ -6951,7 +6951,7 @@
         <v>182</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="P94" s="6">
         <v>43390</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="95" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -6968,10 +6968,10 @@
         <v>11</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>35</v>
@@ -6987,7 +6987,7 @@
         <v>HostConfigInterface</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>148</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="96" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -7007,7 +7007,7 @@
         <v>11</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>35</v>
@@ -7023,7 +7023,7 @@
         <v>HostConfigInterfaceMethods</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>148</v>
@@ -7055,7 +7055,7 @@
         <v>67</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -7081,21 +7081,21 @@
         <v>120</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>181</v>
@@ -7104,7 +7104,7 @@
         <v>14</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>179</v>
@@ -7114,7 +7114,7 @@
         <v>JsonWriteCall</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>148</v>
@@ -7146,7 +7146,7 @@
         <v>78</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>148</v>
@@ -7178,7 +7178,7 @@
         <v>188</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>148</v>
@@ -7207,7 +7207,7 @@
         <v>190</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>151</v>
@@ -7236,7 +7236,7 @@
         <v>191</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>151</v>
@@ -7265,7 +7265,7 @@
         <v>192</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>151</v>
@@ -7282,7 +7282,7 @@
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>35</v>
@@ -7297,7 +7297,7 @@
         <v>335</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>148</v>
@@ -7314,7 +7314,7 @@
         <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>35</v>
@@ -7329,7 +7329,7 @@
         <v>83</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>148</v>
@@ -7346,13 +7346,13 @@
         <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>193</v>
@@ -7362,7 +7362,7 @@
         <v>ListProperties</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>148</v>
@@ -7391,7 +7391,7 @@
         <v>85</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -7417,7 +7417,7 @@
         <v>39</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -7440,12 +7440,12 @@
         <v>195</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="404" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
@@ -7454,16 +7454,16 @@
         <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>160</v>
@@ -7473,7 +7473,7 @@
         <v>Model</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>148</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="112" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
@@ -7490,19 +7490,19 @@
         <v>11</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>160</v>
@@ -7512,7 +7512,7 @@
         <v>ModelBean</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>148</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="113" spans="1:14" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>301</v>
@@ -7529,19 +7529,19 @@
         <v>11</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>160</v>
@@ -7551,7 +7551,7 @@
         <v>ModelBeanGen</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>148</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="114" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>301</v>
@@ -7568,16 +7568,16 @@
         <v>11</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>160</v>
@@ -7587,7 +7587,7 @@
         <v>ModelBeanInterface4Java</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>148</v>
@@ -7604,13 +7604,13 @@
         <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>35</v>
@@ -7625,7 +7625,7 @@
         <v>197</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>148</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="116" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -7642,10 +7642,10 @@
         <v>11</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>205</v>
@@ -7664,7 +7664,7 @@
         <v>ModelConfigDbObject</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>148</v>
@@ -7672,16 +7672,16 @@
     </row>
     <row r="117" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>482</v>
@@ -7700,7 +7700,7 @@
         <v>ModelConfigDbProperties</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>148</v>
@@ -7717,16 +7717,16 @@
         <v>11</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>160</v>
@@ -7736,7 +7736,7 @@
         <v>ModelConfigInterface</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>148</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="119" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
@@ -7769,7 +7769,7 @@
         <v>ModelConfigInterfaceMethods</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>148</v>
@@ -7801,7 +7801,7 @@
         <v>199</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>148</v>
@@ -7833,7 +7833,7 @@
         <v>201</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>148</v>
@@ -7865,7 +7865,7 @@
         <v>203</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>148</v>
@@ -7897,7 +7897,7 @@
         <v>205</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>148</v>
@@ -7929,7 +7929,7 @@
         <v>207</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>148</v>
@@ -7961,7 +7961,7 @@
         <v>209</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>148</v>
@@ -7990,7 +7990,7 @@
         <v>210</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>148</v>
@@ -8019,7 +8019,7 @@
         <v>133</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>151</v>
@@ -8039,7 +8039,7 @@
         <v>35</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>147</v>
@@ -8048,7 +8048,7 @@
         <v>56</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>148</v>
@@ -8077,7 +8077,7 @@
         <v>212</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>148</v>
@@ -8112,7 +8112,7 @@
         <v>214</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>148</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="131" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>10</v>
@@ -8132,16 +8132,16 @@
         <v>112</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>154</v>
@@ -8151,7 +8151,7 @@
         <v>PermissionBean</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>148</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="132" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>10</v>
@@ -8174,7 +8174,7 @@
         <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>35</v>
@@ -8190,12 +8190,12 @@
         <v>PermissionBeanInterface</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="133" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>10</v>
@@ -8207,10 +8207,10 @@
         <v>112</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>35</v>
@@ -8226,7 +8226,7 @@
         <v>PermissionConfig</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="P133" s="6">
         <v>44181</v>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="134" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -8259,7 +8259,7 @@
         <v>PermissionConfigInterface</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P134" s="6">
         <v>44181</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="135" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>10</v>
@@ -8279,7 +8279,7 @@
         <v>11</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>35</v>
@@ -8295,7 +8295,7 @@
         <v>PermissionConfigInterfaceMethods</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P135" s="6">
         <v>44136</v>
@@ -8331,7 +8331,7 @@
         <v>PermissionRole</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>148</v>
@@ -8366,7 +8366,7 @@
         <v>217</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>148</v>
@@ -8398,7 +8398,7 @@
         <v>220</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>151</v>
@@ -8433,7 +8433,7 @@
         <v>125</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>148</v>
@@ -8465,7 +8465,7 @@
         <v>222</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>151</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="141" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
@@ -8491,17 +8491,17 @@
         <v>35</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L141" s="2" t="str">
         <f>A141</f>
         <v>SimpleCommand</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>148</v>
@@ -8521,7 +8521,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>156</v>
@@ -8540,7 +8540,7 @@
         <v>SinusValueCall</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>148</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="143" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>207</v>
@@ -8566,7 +8566,7 @@
         <v>35</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>163</v>
@@ -8576,7 +8576,7 @@
         <v>SortOrder</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>148</v>
@@ -8608,7 +8608,7 @@
         <v>13</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S144" s="6">
         <v>44041</v>
@@ -8638,7 +8638,7 @@
         <v>StringBuffer</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>151</v>
@@ -8671,7 +8671,7 @@
         <v>StringBuilder</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>151</v>
@@ -8691,7 +8691,7 @@
         <v>11</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>156</v>
@@ -8710,7 +8710,7 @@
         <v>StringLowerCall</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>148</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="148" spans="1:19" ht="118" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
@@ -8727,7 +8727,7 @@
         <v>11</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>156</v>
@@ -8746,7 +8746,7 @@
         <v>StringLowerFirstCharCall</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>148</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="149" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>10</v>
@@ -8766,7 +8766,7 @@
         <v>11</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>156</v>
@@ -8785,7 +8785,7 @@
         <v>StringPluralCall</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>148</v>
@@ -8802,7 +8802,7 @@
         <v>11</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>534</v>
@@ -8824,7 +8824,7 @@
         <v>StringReplaceCall</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N150" s="2" t="s">
         <v>148</v>
@@ -8841,7 +8841,7 @@
         <v>11</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>156</v>
@@ -8860,7 +8860,7 @@
         <v>StringReplaceWhiteSpaceCall</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>148</v>
@@ -8880,7 +8880,7 @@
         <v>11</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>156</v>
@@ -8899,7 +8899,7 @@
         <v>StringReplaceWithHtmlCall</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>148</v>
@@ -8917,7 +8917,7 @@
         <v>11</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>156</v>
@@ -8936,7 +8936,7 @@
         <v>StringUpperCall</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>148</v>
@@ -8954,7 +8954,7 @@
         <v>11</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>156</v>
@@ -8973,7 +8973,7 @@
         <v>StringUpperFirstCharCall</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>148</v>
@@ -8991,10 +8991,10 @@
         <v>11</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>156</v>
@@ -9013,7 +9013,7 @@
         <v>TemplateCall</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N155" s="2" t="s">
         <v>148</v>
@@ -9037,7 +9037,7 @@
         <v>14</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>186</v>
@@ -9047,7 +9047,7 @@
         <v>TemplateDirResourceCall</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>148</v>
@@ -9083,7 +9083,7 @@
         <v>TemplateResourceCall</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>148</v>
@@ -9103,13 +9103,13 @@
         <v>11</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>186</v>
@@ -9119,7 +9119,7 @@
         <v>TemplateResourceStoreCall</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>148</v>
@@ -9140,7 +9140,7 @@
         <v>332</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>156</v>
@@ -9159,7 +9159,7 @@
         <v>TheGreetingCall</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>148</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="160" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>201</v>
@@ -9192,7 +9192,7 @@
         <v>TreeMap</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>151</v>
@@ -9212,10 +9212,10 @@
         <v>11</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>156</v>
@@ -9233,7 +9233,7 @@
         <v>237</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>148</v>
@@ -9253,7 +9253,7 @@
         <v>11</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>178</v>
@@ -9271,7 +9271,7 @@
         <v>253</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>148</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="163" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>361</v>
@@ -9288,10 +9288,10 @@
         <v>11</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>35</v>
@@ -9307,7 +9307,7 @@
         <v>XlsxConfigInterface</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>148</v>
@@ -9333,7 +9333,7 @@
         <v>14</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>255</v>
@@ -9342,7 +9342,7 @@
         <v>256</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>148</v>
@@ -9355,8 +9355,14 @@
   <autoFilter ref="A1:N164" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
     <filterColumn colId="2">
       <filters>
-        <filter val="eo-db"/>
+        <filter val="elastic-objects"/>
+        <filter val="eo-csv"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter val="*CsvConfig*"/>
+      </customFilters>
     </filterColumn>
     <sortState ref="A2:N151">
       <sortCondition ref="A2:A151"/>
@@ -9429,7 +9435,7 @@
     </row>
     <row r="2" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -9441,7 +9447,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -9452,12 +9458,12 @@
         <v>absolute</v>
       </c>
       <c r="J2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -9469,7 +9475,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -9480,12 +9486,12 @@
         <v>abstract</v>
       </c>
       <c r="J3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -9497,7 +9503,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -9508,7 +9514,7 @@
         <v>abstract</v>
       </c>
       <c r="J4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -9525,7 +9531,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -9540,7 +9546,7 @@
     </row>
     <row r="6" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -9552,7 +9558,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -9566,7 +9572,7 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -9604,7 +9610,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -9619,7 +9625,7 @@
     </row>
     <row r="9" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -9631,7 +9637,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -9710,7 +9716,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -9766,7 +9772,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -9794,7 +9800,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -9863,7 +9869,7 @@
     </row>
     <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -9875,7 +9881,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -9886,12 +9892,12 @@
         <v>dbAnnotated</v>
       </c>
       <c r="J18" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -9903,7 +9909,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
@@ -9914,7 +9920,7 @@
         <v>dbAnnotated</v>
       </c>
       <c r="J19" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9931,7 +9937,7 @@
         <v>240</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F20" t="s">
         <v>35</v>
@@ -9955,7 +9961,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -9997,7 +10003,7 @@
     </row>
     <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -10009,7 +10015,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
@@ -10020,7 +10026,7 @@
         <v>default</v>
       </c>
       <c r="J23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10293,7 +10299,7 @@
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -10302,10 +10308,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="F34" t="s">
         <v>35</v>
@@ -10318,7 +10324,7 @@
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -10327,10 +10333,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="F35" t="s">
         <v>35</v>
@@ -10343,19 +10349,19 @@
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>774</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="F36" t="s">
         <v>35</v>
@@ -10393,7 +10399,7 @@
         <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10435,7 +10441,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>50</v>
@@ -10475,12 +10481,12 @@
         <v>80</v>
       </c>
       <c r="J40" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -10492,7 +10498,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F41" t="s">
         <v>35</v>
@@ -10548,7 +10554,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F43" t="s">
         <v>35</v>
@@ -10575,7 +10581,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F44" t="s">
         <v>35</v>
@@ -10617,7 +10623,7 @@
     </row>
     <row r="46" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -10629,7 +10635,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F46" t="s">
         <v>35</v>
@@ -10640,12 +10646,12 @@
         <v>final</v>
       </c>
       <c r="J46" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -10657,7 +10663,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F47" t="s">
         <v>35</v>
@@ -10668,7 +10674,7 @@
         <v>generated</v>
       </c>
       <c r="J47" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10685,7 +10691,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F48" t="s">
         <v>35</v>
@@ -10752,7 +10758,7 @@
     </row>
     <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -10805,7 +10811,7 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10822,7 +10828,7 @@
         <v>39</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -10943,7 +10949,7 @@
     </row>
     <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B58" t="s">
         <v>301</v>
@@ -10955,7 +10961,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F58" t="s">
         <v>35</v>
@@ -10969,12 +10975,12 @@
         <v>10000</v>
       </c>
       <c r="J58" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B59" t="s">
         <v>301</v>
@@ -10986,7 +10992,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F59" t="s">
         <v>35</v>
@@ -11000,12 +11006,12 @@
         <v>1028</v>
       </c>
       <c r="J59" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B60" t="s">
         <v>301</v>
@@ -11017,7 +11023,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F60" t="s">
         <v>35</v>
@@ -11031,12 +11037,12 @@
         <v>512</v>
       </c>
       <c r="J60" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B61" t="s">
         <v>301</v>
@@ -11048,7 +11054,7 @@
         <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F61" t="s">
         <v>35</v>
@@ -11062,12 +11068,12 @@
         <v>128</v>
       </c>
       <c r="J61" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B62" t="s">
         <v>301</v>
@@ -11079,7 +11085,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F62" t="s">
         <v>35</v>
@@ -11093,12 +11099,12 @@
         <v>512</v>
       </c>
       <c r="J62" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B63" t="s">
         <v>301</v>
@@ -11110,7 +11116,7 @@
         <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F63" t="s">
         <v>35</v>
@@ -11124,12 +11130,12 @@
         <v>512</v>
       </c>
       <c r="J63" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B64" t="s">
         <v>301</v>
@@ -11141,7 +11147,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -11155,12 +11161,12 @@
         <v>512</v>
       </c>
       <c r="J64" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B65" t="s">
         <v>301</v>
@@ -11172,7 +11178,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F65" t="s">
         <v>35</v>
@@ -11186,12 +11192,12 @@
         <v>1028</v>
       </c>
       <c r="J65" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B66" t="s">
         <v>301</v>
@@ -11203,7 +11209,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F66" t="s">
         <v>35</v>
@@ -11217,12 +11223,12 @@
         <v>512</v>
       </c>
       <c r="J66" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B67" t="s">
         <v>301</v>
@@ -11234,7 +11240,7 @@
         <v>13</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
@@ -11248,12 +11254,12 @@
         <v>512</v>
       </c>
       <c r="J67" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B68" t="s">
         <v>301</v>
@@ -11265,7 +11271,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F68" t="s">
         <v>35</v>
@@ -11279,7 +11285,7 @@
         <v>1028</v>
       </c>
       <c r="J68" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -11308,7 +11314,7 @@
     </row>
     <row r="70" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -11320,7 +11326,7 @@
         <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F70" t="s">
         <v>35</v>
@@ -11334,12 +11340,12 @@
         <v>10</v>
       </c>
       <c r="J70" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B71" t="s">
         <v>301</v>
@@ -11351,7 +11357,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F71" t="s">
         <v>35</v>
@@ -11365,12 +11371,12 @@
         <v>64</v>
       </c>
       <c r="J71" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B72" t="s">
         <v>301</v>
@@ -11382,7 +11388,7 @@
         <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F72" t="s">
         <v>35</v>
@@ -11396,12 +11402,12 @@
         <v>512</v>
       </c>
       <c r="J72" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B73" t="s">
         <v>301</v>
@@ -11413,7 +11419,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F73" t="s">
         <v>35</v>
@@ -11427,7 +11433,7 @@
         <v>1028</v>
       </c>
       <c r="J73" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11515,7 +11521,7 @@
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -11539,7 +11545,7 @@
         <v>jsonIgnore</v>
       </c>
       <c r="J77" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11634,7 +11640,7 @@
         <v>83</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F81" t="s">
         <v>35</v>
@@ -11728,7 +11734,7 @@
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -11740,7 +11746,7 @@
         <v>67</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F85" t="s">
         <v>35</v>
@@ -11751,12 +11757,12 @@
         <v>max</v>
       </c>
       <c r="J85" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -11768,7 +11774,7 @@
         <v>67</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F86" t="s">
         <v>35</v>
@@ -11779,7 +11785,7 @@
         <v>min</v>
       </c>
       <c r="J86" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11796,7 +11802,7 @@
         <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F87" t="s">
         <v>35</v>
@@ -11823,7 +11829,7 @@
         <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F88" t="s">
         <v>35</v>
@@ -11839,7 +11845,7 @@
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B89" t="s">
         <v>301</v>
@@ -11851,7 +11857,7 @@
         <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F89" t="s">
         <v>35</v>
@@ -11865,12 +11871,12 @@
         <v>64</v>
       </c>
       <c r="J89" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B90" t="s">
         <v>301</v>
@@ -11882,7 +11888,7 @@
         <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F90" t="s">
         <v>35</v>
@@ -11896,12 +11902,12 @@
         <v>64</v>
       </c>
       <c r="J90" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B91" t="s">
         <v>301</v>
@@ -11913,7 +11919,7 @@
         <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F91" t="s">
         <v>35</v>
@@ -11927,7 +11933,7 @@
         <v>64</v>
       </c>
       <c r="J91" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -12010,7 +12016,7 @@
     </row>
     <row r="95" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -12022,7 +12028,7 @@
         <v>30</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -12149,10 +12155,10 @@
         <v>11</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -12174,10 +12180,10 @@
         <v>11</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -12488,7 +12494,7 @@
         <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F113" t="s">
         <v>35</v>
@@ -12580,12 +12586,12 @@
         <v>98</v>
       </c>
       <c r="J116" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -12597,7 +12603,7 @@
         <v>16</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F117" t="s">
         <v>35</v>
@@ -12608,7 +12614,7 @@
         <v>override</v>
       </c>
       <c r="J117" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -12625,7 +12631,7 @@
         <v>16</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -12636,7 +12642,7 @@
         <v>overwrite</v>
       </c>
       <c r="J118" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -12721,7 +12727,7 @@
         <v>15</v>
       </c>
       <c r="J121" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -12777,7 +12783,7 @@
         <v>port</v>
       </c>
       <c r="J123" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -12838,7 +12844,7 @@
     </row>
     <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B126" t="s">
         <v>301</v>
@@ -12850,7 +12856,7 @@
         <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F126" t="s">
         <v>35</v>
@@ -12890,7 +12896,7 @@
     </row>
     <row r="128" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -12902,7 +12908,7 @@
         <v>16</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F128" t="s">
         <v>35</v>
@@ -12913,7 +12919,7 @@
         <v>property</v>
       </c>
       <c r="J128" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -12944,7 +12950,7 @@
         <v>8</v>
       </c>
       <c r="J129" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -13054,7 +13060,7 @@
         <v>4</v>
       </c>
       <c r="J133" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13082,7 +13088,7 @@
         <v>115</v>
       </c>
       <c r="J134" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13110,7 +13116,7 @@
         <v>116</v>
       </c>
       <c r="J135" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13138,7 +13144,7 @@
         <v>117</v>
       </c>
       <c r="J136" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -13155,7 +13161,7 @@
         <v>13</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F137" t="s">
         <v>35</v>
@@ -13168,7 +13174,7 @@
         <v>80</v>
       </c>
       <c r="J137" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13182,7 +13188,7 @@
         <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>118</v>
@@ -13274,7 +13280,7 @@
         <v>shapeType</v>
       </c>
       <c r="J141" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13307,19 +13313,19 @@
     </row>
     <row r="143" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>661</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="F143" t="s">
         <v>35</v>
@@ -13332,7 +13338,7 @@
     </row>
     <row r="144" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -13344,7 +13350,7 @@
         <v>13</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F144" t="s">
         <v>35</v>
@@ -13423,10 +13429,10 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F147" t="s">
         <v>35</v>
@@ -13493,7 +13499,7 @@
     </row>
     <row r="150" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -13517,12 +13523,12 @@
         <v>staticName</v>
       </c>
       <c r="J150" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -13534,7 +13540,7 @@
         <v>16</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F151" t="s">
         <v>35</v>
@@ -13545,7 +13551,7 @@
         <v>super</v>
       </c>
       <c r="J151" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13589,7 +13595,7 @@
         <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F153" t="s">
         <v>35</v>
@@ -13604,7 +13610,7 @@
     </row>
     <row r="154" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>10</v>
@@ -13616,7 +13622,7 @@
         <v>13</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -13644,7 +13650,7 @@
         <v>13</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -13660,7 +13666,7 @@
     </row>
     <row r="156" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -13672,7 +13678,7 @@
         <v>13</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F156" t="s">
         <v>35</v>
@@ -13688,7 +13694,7 @@
     </row>
     <row r="157" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>10</v>
@@ -13744,7 +13750,7 @@
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>10</v>
@@ -13756,7 +13762,7 @@
         <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -13772,7 +13778,7 @@
     </row>
     <row r="160" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>10</v>
@@ -13784,7 +13790,7 @@
         <v>13</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
@@ -13829,7 +13835,7 @@
     </row>
     <row r="162" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -13841,7 +13847,7 @@
         <v>16</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F162" t="s">
         <v>35</v>
@@ -13852,7 +13858,7 @@
         <v>transient</v>
       </c>
       <c r="J162" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13881,7 +13887,7 @@
         <v>unique</v>
       </c>
       <c r="J163" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -13912,7 +13918,7 @@
     </row>
     <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -13939,7 +13945,7 @@
         <v>80</v>
       </c>
       <c r="J165" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13970,7 +13976,7 @@
         <v>50</v>
       </c>
       <c r="J166" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -14695,7 +14701,7 @@
         <v>388</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>54</v>
@@ -14935,10 +14941,10 @@
     </row>
     <row r="8" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -14951,10 +14957,10 @@
         <v>=&gt;[/projectDirectory]./=&gt;[module]./src/=&gt;[moduleScope]./java/==&gt;[StringReplaceCall-&gt;packagePath, \\., /].</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>14</v>
@@ -14963,18 +14969,18 @@
         <v>273</v>
       </c>
       <c r="L8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -14990,7 +14996,7 @@
         <v>=&gt;[shapeType].create.tpl</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
@@ -14999,13 +15005,13 @@
         <v>273</v>
       </c>
       <c r="L9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>301</v>
@@ -15021,10 +15027,10 @@
         <v>=&gt;[projectDirectory]./=&gt;[module]./src/=&gt;[moduleScope]./resources</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>14</v>
@@ -15033,7 +15039,7 @@
         <v>273</v>
       </c>
       <c r="L10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -15479,7 +15485,7 @@
         <v>253</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -15579,7 +15585,7 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>460</v>
@@ -15594,13 +15600,13 @@
         <v>272</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>518</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>14</v>
@@ -15614,7 +15620,7 @@
     </row>
     <row r="29" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>251</v>
@@ -15626,13 +15632,13 @@
         <v>272</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>508</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>14</v>
@@ -15649,7 +15655,7 @@
         <v>384</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -15665,7 +15671,7 @@
         <v>eo.xlsx</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>14</v>
@@ -15685,7 +15691,7 @@
         <v>253</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
@@ -15720,7 +15726,7 @@
         <v>253</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
@@ -15755,7 +15761,7 @@
         <v>253</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -15790,7 +15796,7 @@
         <v>253</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -15825,7 +15831,7 @@
         <v>253</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -16079,7 +16085,7 @@
     </row>
     <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>301</v>
@@ -16284,7 +16290,7 @@
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>301</v>
@@ -16381,10 +16387,10 @@
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -16400,7 +16406,7 @@
         <v>ParamsEoConfigs.json</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>14</v>
@@ -16414,10 +16420,10 @@
     </row>
     <row r="53" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
@@ -16433,7 +16439,7 @@
         <v>ParamsJava.json</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>14</v>
@@ -16886,10 +16892,10 @@
         <v>272</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>488</v>
@@ -16986,7 +16992,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>565</v>
@@ -17012,7 +17018,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>566</v>
@@ -17035,7 +17041,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>567</v>
@@ -17058,7 +17064,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>567</v>

--- a/builder-eo/src/main/resources/eo.xlsx
+++ b/builder-eo/src/main/resources/eo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder-eo/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A566F-D201-1043-9D08-A9D868C4078A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAFD320-459E-F344-A375-33D4193C82DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="480" windowWidth="28240" windowHeight="17540" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="1240" yWindow="1120" windowWidth="28240" windowHeight="17540" activeTab="2" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DbSqlConfig!$A$1:$I$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FieldConfig!$A$1:$J$169</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FileConfig!$A$1:$N$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$165</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="937">
   <si>
     <t>naturalId</t>
   </si>
@@ -2196,9 +2196,6 @@
     <t>A bean container class for Model values</t>
   </si>
   <si>
-    <t>[   "module","moduleScope","fileEnding", "targetFileConfigKey"]</t>
-  </si>
-  <si>
     <t>classes.java</t>
   </si>
   <si>
@@ -2241,12 +2238,6 @@
     <t>Abstract super class for generating code based on ModelBeans.json.</t>
   </si>
   <si>
-    <t>GenerateModelProperties</t>
-  </si>
-  <si>
-    <t>GenerateProperties</t>
-  </si>
-  <si>
     <t xml:space="preserve">Instance abstract base class for generating code with targetFileConfigKey and filter module, moduleScope values. </t>
   </si>
   <si>
@@ -2278,9 +2269,6 @@
   </si>
   <si>
     <t>override</t>
-  </si>
-  <si>
-    <t>[   "module","moduleScope","fileEnding", "targetFileConfigKey", "projectDirectory", "sourceFileConfigKey"]</t>
   </si>
   <si>
     <t>ParamsEoConfigs.json</t>
@@ -3057,6 +3045,15 @@
   </si>
   <si>
     <t>CsvConfigInterface,ListProperties</t>
+  </si>
+  <si>
+    <t>GenerateModelInterface</t>
+  </si>
+  <si>
+    <t>GenerateAbstractInterface</t>
+  </si>
+  <si>
+    <t>module, moduleScope, fileEnding, targetFileConfigKey, projectDirectory, sourceFileConfigKey</t>
   </si>
 </sst>
 </file>
@@ -3446,13 +3443,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S164"/>
+  <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G165" sqref="G165"/>
+      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3537,7 +3534,7 @@
         <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>147</v>
@@ -3546,7 +3543,7 @@
         <v>146</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>148</v>
@@ -3572,7 +3569,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>484</v>
@@ -3581,7 +3578,7 @@
         <v>417</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>148</v>
@@ -3613,7 +3610,7 @@
         <v>42</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3639,7 +3636,7 @@
         <v>150</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>151</v>
@@ -3659,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>14</v>
@@ -3674,7 +3671,7 @@
         <v>418</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>148</v>
@@ -3688,7 +3685,7 @@
     </row>
     <row r="7" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -3697,16 +3694,16 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>483</v>
@@ -3716,13 +3713,13 @@
         <v>BaseBean</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="P7" s="6">
         <v>42725</v>
@@ -3730,7 +3727,7 @@
     </row>
     <row r="8" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -3739,10 +3736,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
@@ -3758,13 +3755,13 @@
         <v>BaseBeanInterface</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="P8" s="6">
         <v>44186</v>
@@ -3772,7 +3769,7 @@
     </row>
     <row r="9" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3781,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>483</v>
@@ -3800,13 +3797,13 @@
         <v>BaseConfig</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="P9" s="6">
         <v>44186</v>
@@ -3814,7 +3811,7 @@
     </row>
     <row r="10" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3823,7 +3820,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -3839,13 +3836,13 @@
         <v>BaseConfigInterface</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>148</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="P10" s="6">
         <v>44186</v>
@@ -3868,7 +3865,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>152</v>
@@ -3877,7 +3874,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>151</v>
@@ -3909,7 +3906,7 @@
         <v>153</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>148</v>
@@ -3945,7 +3942,7 @@
         <v>CallContent</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>148</v>
@@ -3965,19 +3962,19 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>154</v>
@@ -3987,7 +3984,7 @@
         <v>CallImpl</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>148</v>
@@ -4020,7 +4017,7 @@
         <v>Class</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>151</v>
@@ -4050,7 +4047,7 @@
         <v>Condition</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>148</v>
@@ -4089,7 +4086,7 @@
         <v>ConfigAsFlatListCall</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>148</v>
@@ -4106,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>160</v>
@@ -4128,7 +4125,7 @@
         <v>ConfigBean</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>148</v>
@@ -4139,7 +4136,7 @@
     </row>
     <row r="19" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -4148,10 +4145,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>35</v>
@@ -4167,7 +4164,7 @@
         <v>ConfigBeanInterface</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>148</v>
@@ -4209,7 +4206,7 @@
         <v>ConfigCall</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>148</v>
@@ -4220,7 +4217,7 @@
     </row>
     <row r="21" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -4229,13 +4226,13 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>35</v>
@@ -4251,7 +4248,7 @@
         <v>ConfigConfig</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>148</v>
@@ -4262,7 +4259,7 @@
     </row>
     <row r="22" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -4271,10 +4268,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>35</v>
@@ -4290,7 +4287,7 @@
         <v>ConfigConfigInterface</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>148</v>
@@ -4326,7 +4323,7 @@
         <v>ConfigDirectoryReadCommand</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>148</v>
@@ -4365,7 +4362,7 @@
         <v>ConfigKeysCall</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>148</v>
@@ -4401,7 +4398,7 @@
         <v>ConfigLinkCall</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>148</v>
@@ -4442,7 +4439,7 @@
         <v>167</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>148</v>
@@ -4478,7 +4475,7 @@
         <v>ConfigReadCommand</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>148</v>
@@ -4514,7 +4511,7 @@
         <v>ConfigReadWriteCommand</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>148</v>
@@ -4547,7 +4544,7 @@
         <v>ConfigsCommand</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>148</v>
@@ -4582,7 +4579,7 @@
         <v>171</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>148</v>
@@ -4618,13 +4615,13 @@
         <v>ConfigWriteCommand</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>370</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>178</v>
@@ -4653,7 +4650,7 @@
         <v>370</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>148</v>
@@ -4661,7 +4658,7 @@
     </row>
     <row r="33" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -4670,7 +4667,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>35</v>
@@ -4686,7 +4683,7 @@
         <v>CsvConfigInterface</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>148</v>
@@ -4718,7 +4715,7 @@
         <v>371</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>148</v>
@@ -4738,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>335</v>
@@ -4760,7 +4757,7 @@
         <v>CsvSimpleReadCall</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>148</v>
@@ -4799,7 +4796,7 @@
         <v>CsvSimpleWriteCall</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>148</v>
@@ -4834,7 +4831,7 @@
         <v>374</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>148</v>
@@ -4866,12 +4863,12 @@
         <v>30</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>241</v>
@@ -4880,19 +4877,19 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>154</v>
@@ -4902,7 +4899,7 @@
         <v>DbBean</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>148</v>
@@ -4910,7 +4907,7 @@
     </row>
     <row r="40" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>241</v>
@@ -4919,7 +4916,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>35</v>
@@ -4935,7 +4932,7 @@
         <v>DbBeanInterface</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>148</v>
@@ -4952,10 +4949,10 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>182</v>
@@ -4964,7 +4961,7 @@
         <v>35</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>154</v>
@@ -4974,7 +4971,7 @@
         <v>DbConfig</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>148</v>
@@ -4982,7 +4979,7 @@
     </row>
     <row r="42" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>241</v>
@@ -4991,7 +4988,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>35</v>
@@ -5007,7 +5004,7 @@
         <v>DbConfigInterface</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>148</v>
@@ -5043,7 +5040,7 @@
         <v>DbModelCall</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>148</v>
@@ -5082,7 +5079,7 @@
         <v>DbModelDeleteCall</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>148</v>
@@ -5121,7 +5118,7 @@
         <v>DbModelReadCall</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>148</v>
@@ -5160,7 +5157,7 @@
         <v>DbModelWriteCall</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>148</v>
@@ -5171,7 +5168,7 @@
     </row>
     <row r="47" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>241</v>
@@ -5180,13 +5177,13 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>35</v>
@@ -5202,7 +5199,7 @@
         <v>DbSqlBean</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>148</v>
@@ -5213,7 +5210,7 @@
     </row>
     <row r="48" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>241</v>
@@ -5222,16 +5219,16 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>242</v>
@@ -5241,7 +5238,7 @@
         <v>DbSqlBeanInterface</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>148</v>
@@ -5277,7 +5274,7 @@
         <v>DbSqlCall</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>148</v>
@@ -5294,19 +5291,19 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>242</v>
@@ -5316,7 +5313,7 @@
         <v>DbSqlConfig</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>148</v>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="51" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>241</v>
@@ -5336,16 +5333,16 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>242</v>
@@ -5355,7 +5352,7 @@
         <v>DbSqlConfigInterface</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>148</v>
@@ -5391,7 +5388,7 @@
         <v>DbSqlExecuteCall</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>148</v>
@@ -5427,7 +5424,7 @@
         <v>DbSqlReadCall</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>148</v>
@@ -5463,7 +5460,7 @@
         <v>DbTypes</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>148</v>
@@ -5496,7 +5493,7 @@
         <v>DirectoryConfig</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>148</v>
@@ -5532,7 +5529,7 @@
         <v>DirectoryListReadCall</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>148</v>
@@ -5571,7 +5568,7 @@
         <v>DirectoryMapReadCall</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>148</v>
@@ -5613,7 +5610,7 @@
         <v>DirectoryReadCall</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>148</v>
@@ -5652,7 +5649,7 @@
         <v>DirectoryWriteCall</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>148</v>
@@ -5684,7 +5681,7 @@
         <v>131</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -5713,7 +5710,7 @@
         <v>172</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>148</v>
@@ -5742,7 +5739,7 @@
         <v>174</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>148</v>
@@ -5774,7 +5771,7 @@
         <v>45</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>148</v>
@@ -5791,10 +5788,10 @@
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>694</v>
@@ -5803,7 +5800,7 @@
         <v>35</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>160</v>
@@ -5813,7 +5810,7 @@
         <v>FieldBean</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>148</v>
@@ -5822,9 +5819,9 @@
         <v>44174</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>301</v>
@@ -5833,7 +5830,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>692</v>
@@ -5852,7 +5849,7 @@
         <v>FieldBeanGen</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>148</v>
@@ -5863,7 +5860,7 @@
     </row>
     <row r="66" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -5872,16 +5869,16 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>160</v>
@@ -5891,7 +5888,7 @@
         <v>FieldBeanInterface</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>148</v>
@@ -5903,9 +5900,9 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="372" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="372" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>301</v>
@@ -5914,16 +5911,16 @@
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>160</v>
@@ -5933,15 +5930,15 @@
         <v>FieldBeanInterface4Java</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>301</v>
@@ -5950,13 +5947,13 @@
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>160</v>
@@ -5966,7 +5963,7 @@
         <v>FieldBeanInterface4Javascript</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>148</v>
@@ -5983,19 +5980,19 @@
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>160</v>
@@ -6004,7 +6001,7 @@
         <v>177</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>148</v>
@@ -6015,7 +6012,7 @@
     </row>
     <row r="70" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -6024,16 +6021,16 @@
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>160</v>
@@ -6043,7 +6040,7 @@
         <v>FieldConfigInterface</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>148</v>
@@ -6057,7 +6054,7 @@
     </row>
     <row r="71" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>10</v>
@@ -6066,19 +6063,19 @@
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>179</v>
@@ -6088,7 +6085,7 @@
         <v>FileBean</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>148</v>
@@ -6102,7 +6099,7 @@
     </row>
     <row r="72" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -6111,10 +6108,10 @@
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>35</v>
@@ -6130,7 +6127,7 @@
         <v>FileBeanInterface</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>148</v>
@@ -6172,7 +6169,7 @@
         <v>FileCall</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>148</v>
@@ -6189,13 +6186,13 @@
         <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>35</v>
@@ -6210,7 +6207,7 @@
         <v>178</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>148</v>
@@ -6224,7 +6221,7 @@
     </row>
     <row r="75" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
@@ -6233,10 +6230,10 @@
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>35</v>
@@ -6252,7 +6249,7 @@
         <v>FileConfigInterface</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>148</v>
@@ -6263,7 +6260,7 @@
     </row>
     <row r="76" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -6272,7 +6269,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>35</v>
@@ -6288,7 +6285,7 @@
         <v>FileConfigInterfaceMethods</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>148</v>
@@ -6329,7 +6326,7 @@
         <v>180</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>148</v>
@@ -6368,7 +6365,7 @@
         <v>FileReadWriteCall</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>148</v>
@@ -6388,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>638</v>
@@ -6409,7 +6406,7 @@
         <v>181</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>148</v>
@@ -6441,15 +6438,15 @@
         <v>132</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="S80" s="7">
         <v>44108</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>301</v>
@@ -6458,7 +6455,10 @@
         <v>11</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>725</v>
+        <v>936</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>935</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>156</v>
@@ -6467,7 +6467,7 @@
         <v>35</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>494</v>
@@ -6477,7 +6477,7 @@
         <v>GenerateAbstract</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>148</v>
@@ -6486,9 +6486,9 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>717</v>
+        <v>935</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>301</v>
@@ -6497,35 +6497,34 @@
         <v>11</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>495</v>
+        <v>936</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>710</v>
+        <v>153</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>496</v>
+        <v>636</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>494</v>
       </c>
       <c r="L82" s="2" t="str">
         <f>A82</f>
-        <v>GenerateEoConfigJsonCall</v>
+        <v>GenerateAbstractInterface</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>864</v>
+        <v>764</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P82" s="6"/>
-    </row>
-    <row r="83" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>301</v>
@@ -6533,38 +6532,36 @@
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>712</v>
+      <c r="E83" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>711</v>
+        <v>496</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>494</v>
       </c>
       <c r="L83" s="2" t="str">
         <f>A83</f>
-        <v>GenerateModelAbstract</v>
+        <v>GenerateEoConfigJsonCall</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>923</v>
+        <v>860</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S83" s="6">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>301</v>
@@ -6572,33 +6569,38 @@
       <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F84" s="2" t="s">
+        <v>934</v>
+      </c>
       <c r="G84" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>494</v>
       </c>
       <c r="L84" s="2" t="str">
         <f>A84</f>
-        <v>GenerateModelBeansJsonCall</v>
+        <v>GenerateModelAbstract</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>864</v>
+        <v>919</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P84" s="6"/>
-    </row>
-    <row r="85" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S84" s="6">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>301</v>
@@ -6606,33 +6608,36 @@
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>731</v>
+      <c r="F85" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>494</v>
       </c>
       <c r="L85" s="2" t="str">
         <f>A85</f>
-        <v>GenerateModelProperties</v>
+        <v>GenerateModelAbstract</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>768</v>
+        <v>919</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S85" s="6">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>715</v>
       </c>
@@ -6656,18 +6661,19 @@
       </c>
       <c r="L86" s="2" t="str">
         <f>A86</f>
-        <v>GenerateModelTemplateCall</v>
+        <v>GenerateModelBeansJsonCall</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>720</v>
+        <v>934</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>301</v>
@@ -6675,32 +6681,35 @@
       <c r="D87" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E87" s="2" t="s">
+        <v>727</v>
+      </c>
       <c r="G87" s="2" t="s">
-        <v>709</v>
+        <v>935</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>494</v>
       </c>
       <c r="L87" s="2" t="str">
         <f>A87</f>
-        <v>GenerateModelTemplateMapCall</v>
+        <v>GenerateModelInterface</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>864</v>
+        <v>764</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>301</v>
@@ -6708,103 +6717,107 @@
       <c r="D88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>697</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>153</v>
+        <v>708</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>494</v>
       </c>
       <c r="L88" s="2" t="str">
         <f>A88</f>
-        <v>GenerateProperties</v>
+        <v>GenerateModelTemplateCall</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>768</v>
+        <v>860</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>455</v>
+        <v>717</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>156</v>
+        <v>708</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>457</v>
+        <v>713</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>184</v>
+        <v>494</v>
       </c>
       <c r="L89" s="2" t="str">
         <f>A89</f>
-        <v>GithubLinkCall</v>
+        <v>GenerateModelTemplateMapCall</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S89" s="7">
+    </row>
+    <row r="90" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L90" s="2" t="str">
+        <f>A90</f>
+        <v>GithubLinkCall</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S90" s="7">
         <v>44108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>794</v>
+        <v>32</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
@@ -6812,69 +6825,53 @@
       <c r="D91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>783</v>
-      </c>
       <c r="I91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L91" s="2" t="str">
-        <f>A91</f>
-        <v>HostBean</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P91" s="6">
-        <v>44181</v>
-      </c>
-      <c r="S91" s="6">
-        <v>44023</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L92" s="2" t="str">
         <f>A92</f>
-        <v>HostBeanInterface</v>
+        <v>HostBean</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>148</v>
@@ -6882,10 +6879,13 @@
       <c r="P92" s="6">
         <v>44181</v>
       </c>
+      <c r="S92" s="6">
+        <v>44023</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>606</v>
+        <v>903</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -6894,37 +6894,37 @@
         <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>607</v>
+        <v>904</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>156</v>
+        <v>907</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>609</v>
+        <v>551</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L93" s="2" t="str">
         <f>A93</f>
-        <v>HostCall</v>
+        <v>HostBeanInterface</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>924</v>
+        <v>858</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P93" s="6">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>182</v>
+        <v>606</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
@@ -6932,34 +6932,38 @@
       <c r="D94" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E94" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>787</v>
+        <v>153</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>784</v>
+        <v>156</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>183</v>
+        <v>609</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L94" s="2" t="s">
-        <v>182</v>
+      <c r="L94" s="2" t="str">
+        <f>A94</f>
+        <v>HostCall</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="P94" s="6">
-        <v>43390</v>
+        <v>920</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>788</v>
+        <v>182</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -6967,38 +6971,34 @@
       <c r="D95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>908</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>780</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>551</v>
+        <v>183</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L95" s="2" t="str">
-        <f>A95</f>
-        <v>HostConfigInterface</v>
+      <c r="L95" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>148</v>
+        <v>905</v>
       </c>
       <c r="P95" s="6">
-        <v>44093</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -7006,8 +7006,11 @@
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E96" s="2" t="s">
+        <v>904</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>35</v>
@@ -7020,47 +7023,57 @@
       </c>
       <c r="L96" s="2" t="str">
         <f>A96</f>
-        <v>HostConfigInterfaceMethods</v>
+        <v>HostConfigInterface</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>148</v>
       </c>
       <c r="P96" s="6">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L97" s="2" t="str">
+        <f>A97</f>
+        <v>HostConfigInterfaceMethods</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P97" s="6">
         <v>44181</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>207</v>
@@ -7075,86 +7088,83 @@
         <v>35</v>
       </c>
       <c r="K98" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M98" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="M99" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L99" s="2" t="str">
-        <f>A99</f>
+      <c r="L100" s="2" t="str">
+        <f>A100</f>
         <v>JsonWriteCall</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="M100" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>188</v>
+        <v>78</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
@@ -7162,66 +7172,66 @@
       <c r="D101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="I101" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>11</v>
@@ -7233,24 +7243,24 @@
         <v>149</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>11</v>
@@ -7262,82 +7272,79 @@
         <v>149</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="238" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J105" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="136" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>193</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>864</v>
+        <v>335</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>764</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>573</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
@@ -7346,59 +7353,65 @@
         <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>574</v>
+        <v>194</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L107" s="2" t="str">
-        <f>A107</f>
-        <v>ListProperties</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>768</v>
+      <c r="L107" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>860</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L108" s="2" t="str">
+        <f>A108</f>
+        <v>ListProperties</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -7411,18 +7424,21 @@
         <v>35</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="L109" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M109" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>195</v>
+      <c r="B110" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>333</v>
@@ -7434,54 +7450,41 @@
         <v>35</v>
       </c>
       <c r="K110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M110" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="404" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L111" s="2" t="str">
-        <f>A111</f>
-        <v>Model</v>
-      </c>
       <c r="M111" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="404" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
@@ -7490,52 +7493,49 @@
         <v>11</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>755</v>
+        <v>797</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>694</v>
+        <v>871</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>696</v>
+        <v>832</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L112" s="2" t="str">
         <f>A112</f>
-        <v>ModelBean</v>
+        <v>Model</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>864</v>
+        <v>809</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>766</v>
+        <v>695</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>830</v>
+        <v>751</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>821</v>
+        <v>750</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>14</v>
@@ -7548,18 +7548,18 @@
       </c>
       <c r="L113" s="2" t="str">
         <f>A113</f>
-        <v>ModelBeanGen</v>
+        <v>ModelBean</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>913</v>
+        <v>860</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>821</v>
+        <v>762</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>301</v>
@@ -7568,72 +7568,73 @@
         <v>11</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>933</v>
+        <v>826</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>754</v>
+        <v>817</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>767</v>
+        <v>696</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L114" s="2" t="str">
         <f>A114</f>
-        <v>ModelBeanInterface4Java</v>
+        <v>ModelBeanGen</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>768</v>
+        <v>909</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>197</v>
+        <v>817</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>824</v>
+        <v>929</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>198</v>
+        <v>763</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L115" s="2" t="s">
-        <v>197</v>
+      <c r="L115" s="2" t="str">
+        <f>A115</f>
+        <v>ModelBeanInterface4Java</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>922</v>
+        <v>764</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>578</v>
+        <v>197</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -7642,109 +7643,111 @@
         <v>11</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>786</v>
+        <v>749</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>205</v>
+        <v>737</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L116" s="2" t="str">
-        <f>A116</f>
-        <v>ModelConfigDbObject</v>
+      <c r="L116" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>799</v>
+        <v>10</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>580</v>
+        <v>787</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>552</v>
+        <v>206</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L117" s="2" t="str">
         <f>A117</f>
-        <v>ModelConfigDbProperties</v>
+        <v>ModelConfigDbObject</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>768</v>
+        <v>918</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="340" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>781</v>
-      </c>
       <c r="I118" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>800</v>
+        <v>552</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L118" s="2" t="str">
         <f>A118</f>
-        <v>ModelConfigInterface</v>
+        <v>ModelConfigDbProperties</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="340" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>753</v>
+        <v>482</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
@@ -7752,32 +7755,35 @@
       <c r="D119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>482</v>
+      <c r="E119" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>552</v>
+        <v>796</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L119" s="2" t="str">
         <f>A119</f>
-        <v>ModelConfigInterfaceMethods</v>
+        <v>ModelConfigInterface</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>199</v>
+        <v>749</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -7786,22 +7792,23 @@
         <v>11</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>197</v>
+        <v>482</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>200</v>
+        <v>552</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L120" s="2" t="s">
-        <v>199</v>
+      <c r="L120" s="2" t="str">
+        <f>A120</f>
+        <v>ModelConfigInterfaceMethods</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>922</v>
+        <v>764</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>148</v>
@@ -7809,7 +7816,7 @@
     </row>
     <row r="121" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>10</v>
@@ -7824,16 +7831,16 @@
         <v>35</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>148</v>
@@ -7841,7 +7848,7 @@
     </row>
     <row r="122" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
@@ -7856,16 +7863,16 @@
         <v>35</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>148</v>
@@ -7873,7 +7880,7 @@
     </row>
     <row r="123" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
@@ -7888,16 +7895,16 @@
         <v>35</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>148</v>
@@ -7905,7 +7912,7 @@
     </row>
     <row r="124" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>10</v>
@@ -7920,16 +7927,16 @@
         <v>35</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>148</v>
@@ -7937,7 +7944,7 @@
     </row>
     <row r="125" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>10</v>
@@ -7958,10 +7965,10 @@
         <v>160</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>148</v>
@@ -7969,7 +7976,7 @@
     </row>
     <row r="126" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
@@ -7977,20 +7984,23 @@
       <c r="D126" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G126" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="I126" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>160</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>148</v>
@@ -7998,97 +8008,94 @@
     </row>
     <row r="127" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L127" s="2" t="s">
+      <c r="L128" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M127" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="N127" s="2" t="s">
+      <c r="M128" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="N128" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="K129" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L128" s="2" t="s">
+      <c r="L129" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M128" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="M129" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S129" s="6">
-        <v>44025</v>
-      </c>
     </row>
     <row r="130" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>10</v>
@@ -8096,31 +8103,31 @@
       <c r="D130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="I130" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>185</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="S130" s="6">
+        <v>44025</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>783</v>
+        <v>214</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>10</v>
@@ -8129,40 +8136,30 @@
         <v>11</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>694</v>
+        <v>248</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>917</v>
+        <v>215</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L131" s="2" t="str">
-        <f>A131</f>
-        <v>PermissionBean</v>
+        <v>185</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>916</v>
+        <v>846</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P131" s="6">
-        <v>44181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>912</v>
+        <v>779</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>10</v>
@@ -8174,28 +8171,37 @@
         <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>786</v>
+        <v>908</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>169</v>
+        <v>913</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L132" s="2" t="str">
         <f>A132</f>
-        <v>PermissionBeanInterface</v>
+        <v>PermissionBean</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>862</v>
+        <v>912</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P132" s="6">
+        <v>44181</v>
       </c>
     </row>
     <row r="133" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>784</v>
+        <v>908</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>10</v>
@@ -8207,34 +8213,28 @@
         <v>112</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>741</v>
+        <v>782</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L133" s="2" t="str">
         <f>A133</f>
-        <v>PermissionConfig</v>
+        <v>PermissionBeanInterface</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="P133" s="6">
-        <v>44181</v>
+        <v>858</v>
       </c>
     </row>
     <row r="134" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -8245,32 +8245,35 @@
       <c r="E134" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="F134" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="I134" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L134" s="2" t="str">
         <f>A134</f>
-        <v>PermissionConfigInterface</v>
+        <v>PermissionConfig</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>863</v>
+        <v>911</v>
       </c>
       <c r="P134" s="6">
         <v>44181</v>
       </c>
-      <c r="S134" s="6">
-        <v>44046</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>10</v>
@@ -8278,8 +8281,8 @@
       <c r="D135" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>786</v>
+      <c r="E135" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>35</v>
@@ -8292,21 +8295,21 @@
       </c>
       <c r="L135" s="2" t="str">
         <f>A135</f>
-        <v>PermissionConfigInterfaceMethods</v>
+        <v>PermissionConfigInterface</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="P135" s="6">
-        <v>44136</v>
+        <v>44181</v>
       </c>
       <c r="S135" s="6">
         <v>44046</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>545</v>
+        <v>788</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>10</v>
@@ -8314,73 +8317,74 @@
       <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>249</v>
+      <c r="F136" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L136" s="2" t="str">
         <f>A136</f>
+        <v>PermissionConfigInterfaceMethods</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="P136" s="6">
+        <v>44136</v>
+      </c>
+      <c r="S136" s="6">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L137" s="2" t="str">
+        <f>A137</f>
         <v>PermissionRole</v>
       </c>
-      <c r="M136" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="S136" s="6">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="M137" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>148</v>
       </c>
       <c r="S137" s="6">
-        <v>44046</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" ht="125" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
@@ -8391,28 +8395,31 @@
       <c r="I138" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="J138" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="K138" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S138" s="6">
         <v>44046</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="125" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>10</v>
@@ -8423,20 +8430,17 @@
       <c r="I139" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="K139" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S139" s="6">
         <v>44046</v>
@@ -8444,7 +8448,7 @@
     </row>
     <row r="140" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>207</v>
@@ -8458,25 +8462,31 @@
       <c r="I140" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="J140" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="K140" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S140" s="6">
         <v>44046</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>634</v>
+        <v>222</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
@@ -8484,27 +8494,20 @@
       <c r="D141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="I141" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="K141" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="L141" s="2" t="str">
-        <f>A141</f>
-        <v>SimpleCommand</v>
+        <v>152</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S141" s="6">
         <v>44046</v>
@@ -8512,7 +8515,7 @@
     </row>
     <row r="142" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>223</v>
+        <v>634</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>10</v>
@@ -8520,41 +8523,35 @@
       <c r="D142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="G142" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>224</v>
+        <v>635</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>184</v>
+        <v>614</v>
       </c>
       <c r="L142" s="2" t="str">
         <f>A142</f>
-        <v>SinusValueCall</v>
+        <v>SimpleCommand</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>864</v>
+        <v>764</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>148</v>
       </c>
       <c r="S142" s="6">
-        <v>43390</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="143" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>10</v>
@@ -8562,38 +8559,44 @@
       <c r="D143" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F143" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I143" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>664</v>
+        <v>224</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L143" s="2" t="str">
         <f>A143</f>
-        <v>SortOrder</v>
+        <v>SinusValueCall</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>148</v>
       </c>
       <c r="S143" s="6">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>13</v>
+        <v>662</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>11</v>
@@ -8601,28 +8604,35 @@
       <c r="I144" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="J144" s="2" t="s">
+        <v>664</v>
+      </c>
       <c r="K144" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>13</v>
+        <v>163</v>
+      </c>
+      <c r="L144" s="2" t="str">
+        <f>A144</f>
+        <v>SortOrder</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="S144" s="6">
-        <v>44041</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>11</v>
@@ -8633,23 +8643,19 @@
       <c r="K145" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L145" s="2" t="str">
-        <f>A145</f>
-        <v>StringBuffer</v>
+      <c r="L145" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>151</v>
+        <v>849</v>
       </c>
       <c r="S145" s="6">
-        <v>44100</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="146" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>207</v>
@@ -8668,21 +8674,24 @@
       </c>
       <c r="L146" s="2" t="str">
         <f>A146</f>
-        <v>StringBuilder</v>
+        <v>StringBuffer</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>151</v>
       </c>
       <c r="S146" s="6">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
@@ -8690,35 +8699,29 @@
       <c r="D147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="I147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="L147" s="2" t="str">
         <f>A147</f>
-        <v>StringLowerCall</v>
+        <v>StringBuilder</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" ht="118" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="S147" s="6">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>735</v>
+        <v>227</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
@@ -8743,21 +8746,18 @@
       </c>
       <c r="L148" s="2" t="str">
         <f>A148</f>
-        <v>StringLowerFirstCharCall</v>
+        <v>StringLowerCall</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S148" s="6">
-        <v>44046</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:19" ht="118" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>10</v>
@@ -8782,18 +8782,21 @@
       </c>
       <c r="L149" s="2" t="str">
         <f>A149</f>
-        <v>StringPluralCall</v>
+        <v>StringLowerFirstCharCall</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="S149" s="6">
+        <v>44046</v>
+      </c>
     </row>
     <row r="150" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>229</v>
+        <v>730</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>10</v>
@@ -8801,11 +8804,8 @@
       <c r="D150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>733</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>156</v>
@@ -8814,17 +8814,17 @@
         <v>14</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L150" s="2" t="str">
         <f>A150</f>
-        <v>StringReplaceCall</v>
+        <v>StringPluralCall</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N150" s="2" t="s">
         <v>148</v>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="151" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>409</v>
+        <v>229</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>10</v>
@@ -8840,8 +8840,11 @@
       <c r="D151" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E151" s="2" t="s">
+        <v>729</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>634</v>
+        <v>534</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>156</v>
@@ -8850,28 +8853,25 @@
         <v>14</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>408</v>
+        <v>230</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L151" s="2" t="str">
         <f>A151</f>
-        <v>StringReplaceWhiteSpaceCall</v>
+        <v>StringReplaceCall</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S151" s="6">
-        <v>44060</v>
-      </c>
     </row>
     <row r="152" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>10</v>
@@ -8896,19 +8896,21 @@
       </c>
       <c r="L152" s="2" t="str">
         <f>A152</f>
-        <v>StringReplaceWithHtmlCall</v>
+        <v>StringReplaceWhiteSpaceCall</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S152" s="7"/>
+      <c r="S152" s="6">
+        <v>44060</v>
+      </c>
     </row>
     <row r="153" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>231</v>
+        <v>415</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>10</v>
@@ -8926,17 +8928,17 @@
         <v>14</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L153" s="2" t="str">
         <f>A153</f>
-        <v>StringUpperCall</v>
+        <v>StringReplaceWithHtmlCall</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>148</v>
@@ -8945,7 +8947,7 @@
     </row>
     <row r="154" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>10</v>
@@ -8970,10 +8972,10 @@
       </c>
       <c r="L154" s="2" t="str">
         <f>A154</f>
-        <v>StringUpperFirstCharCall</v>
+        <v>StringUpperCall</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>148</v>
@@ -8982,7 +8984,7 @@
     </row>
     <row r="155" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>10</v>
@@ -8990,11 +8992,8 @@
       <c r="D155" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>156</v>
@@ -9003,26 +9002,26 @@
         <v>14</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L155" s="2" t="str">
         <f>A155</f>
-        <v>TemplateCall</v>
+        <v>StringUpperFirstCharCall</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N155" s="2" t="s">
         <v>148</v>
       </c>
       <c r="S155" s="7"/>
     </row>
-    <row r="156" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>528</v>
+        <v>234</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
@@ -9030,35 +9029,39 @@
       <c r="D156" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E156" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="G156" s="2" t="s">
-        <v>459</v>
+        <v>156</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>594</v>
+        <v>235</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>186</v>
       </c>
       <c r="L156" s="2" t="str">
         <f>A156</f>
-        <v>TemplateDirResourceCall</v>
+        <v>TemplateCall</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S156" s="7">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S156" s="7"/>
+    </row>
+    <row r="157" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>236</v>
+        <v>528</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>10</v>
@@ -9067,23 +9070,23 @@
         <v>11</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>186</v>
       </c>
       <c r="L157" s="2" t="str">
         <f>A157</f>
-        <v>TemplateResourceCall</v>
+        <v>TemplateDirResourceCall</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>148</v>
@@ -9094,7 +9097,7 @@
     </row>
     <row r="158" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>399</v>
+        <v>236</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>10</v>
@@ -9103,107 +9106,113 @@
         <v>11</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>621</v>
+        <v>180</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>186</v>
       </c>
       <c r="L158" s="2" t="str">
         <f>A158</f>
-        <v>TemplateResourceStoreCall</v>
+        <v>TemplateResourceCall</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S158" s="7"/>
+      <c r="S158" s="7">
+        <v>44141</v>
+      </c>
     </row>
     <row r="159" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>250</v>
+        <v>399</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>156</v>
+        <v>621</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>252</v>
+        <v>590</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L159" s="2" t="str">
         <f>A159</f>
-        <v>TheGreetingCall</v>
+        <v>TemplateResourceStoreCall</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S159" s="7">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S159" s="7"/>
+    </row>
+    <row r="160" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E160" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I160" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="L160" s="2" t="str">
         <f>A160</f>
-        <v>TreeMap</v>
+        <v>TheGreetingCall</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S160" s="7">
         <v>44141</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>237</v>
+        <v>581</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>10</v>
@@ -9211,75 +9220,70 @@
       <c r="D161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="I161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L161" s="2" t="s">
-        <v>237</v>
+        <v>149</v>
+      </c>
+      <c r="L161" s="2" t="str">
+        <f>A161</f>
+        <v>TreeMap</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S161" s="7">
         <v>44141</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>361</v>
+        <v>10</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E162" s="2" t="s">
+        <v>639</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>817</v>
+        <v>637</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>922</v>
+        <v>860</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S162" s="7">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>817</v>
+        <v>253</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>361</v>
@@ -9287,11 +9291,11 @@
       <c r="D163" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>818</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>785</v>
+        <v>813</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>35</v>
@@ -9300,22 +9304,21 @@
         <v>254</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="L163" s="2" t="str">
-        <f>A163</f>
-        <v>XlsxConfigInterface</v>
+        <v>179</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>768</v>
+        <v>918</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>256</v>
+        <v>813</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>361</v>
@@ -9323,53 +9326,83 @@
       <c r="D164" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E164" s="2" t="s">
+        <v>814</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>180</v>
+        <v>781</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>677</v>
+        <v>254</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="L164" s="2" t="s">
-        <v>256</v>
+        <v>179</v>
+      </c>
+      <c r="L164" s="2" t="str">
+        <f>A164</f>
+        <v>XlsxConfigInterface</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>864</v>
+        <v>764</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S164" s="7">
+    </row>
+    <row r="165" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="N165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S165" s="7">
         <v>44141</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N164" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
+  <autoFilter ref="A1:N165" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
     <filterColumn colId="2">
       <filters>
-        <filter val="elastic-objects"/>
-        <filter val="eo-csv"/>
+        <filter val="builder"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter val="*CsvConfig*"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A2:N151">
-      <sortCondition ref="A2:A151"/>
+    <sortState ref="A2:N152">
+      <sortCondition ref="A2:A152"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:P164">
-    <sortCondition ref="A2:A164"/>
+  <sortState ref="A2:P165">
+    <sortCondition ref="A2:A165"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9447,7 +9480,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -9458,12 +9491,12 @@
         <v>absolute</v>
       </c>
       <c r="J2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -9475,7 +9508,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -9486,12 +9519,12 @@
         <v>abstract</v>
       </c>
       <c r="J3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -9503,7 +9536,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -9514,7 +9547,7 @@
         <v>abstract</v>
       </c>
       <c r="J4" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -9531,7 +9564,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -9546,7 +9579,7 @@
     </row>
     <row r="6" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -9558,7 +9591,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -9572,7 +9605,7 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -9610,7 +9643,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -9637,7 +9670,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -9869,7 +9902,7 @@
     </row>
     <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -9881,7 +9914,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -9892,12 +9925,12 @@
         <v>dbAnnotated</v>
       </c>
       <c r="J18" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -9909,7 +9942,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
@@ -9920,7 +9953,7 @@
         <v>dbAnnotated</v>
       </c>
       <c r="J19" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10003,7 +10036,7 @@
     </row>
     <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -10015,7 +10048,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
@@ -10026,7 +10059,7 @@
         <v>default</v>
       </c>
       <c r="J23" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10349,7 +10382,7 @@
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -10358,10 +10391,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F36" t="s">
         <v>35</v>
@@ -10399,7 +10432,7 @@
         <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10441,7 +10474,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>50</v>
@@ -10481,7 +10514,7 @@
         <v>80</v>
       </c>
       <c r="J40" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -10623,7 +10656,7 @@
     </row>
     <row r="46" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -10635,7 +10668,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F46" t="s">
         <v>35</v>
@@ -10646,12 +10679,12 @@
         <v>final</v>
       </c>
       <c r="J46" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -10663,7 +10696,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F47" t="s">
         <v>35</v>
@@ -10674,7 +10707,7 @@
         <v>generated</v>
       </c>
       <c r="J47" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10811,7 +10844,7 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10828,7 +10861,7 @@
         <v>39</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -10949,7 +10982,7 @@
     </row>
     <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B58" t="s">
         <v>301</v>
@@ -10961,7 +10994,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F58" t="s">
         <v>35</v>
@@ -10975,12 +11008,12 @@
         <v>10000</v>
       </c>
       <c r="J58" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B59" t="s">
         <v>301</v>
@@ -10992,7 +11025,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F59" t="s">
         <v>35</v>
@@ -11006,12 +11039,12 @@
         <v>1028</v>
       </c>
       <c r="J59" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B60" t="s">
         <v>301</v>
@@ -11023,7 +11056,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F60" t="s">
         <v>35</v>
@@ -11037,12 +11070,12 @@
         <v>512</v>
       </c>
       <c r="J60" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B61" t="s">
         <v>301</v>
@@ -11054,7 +11087,7 @@
         <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F61" t="s">
         <v>35</v>
@@ -11068,12 +11101,12 @@
         <v>128</v>
       </c>
       <c r="J61" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B62" t="s">
         <v>301</v>
@@ -11085,7 +11118,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F62" t="s">
         <v>35</v>
@@ -11099,12 +11132,12 @@
         <v>512</v>
       </c>
       <c r="J62" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B63" t="s">
         <v>301</v>
@@ -11116,7 +11149,7 @@
         <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F63" t="s">
         <v>35</v>
@@ -11130,12 +11163,12 @@
         <v>512</v>
       </c>
       <c r="J63" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B64" t="s">
         <v>301</v>
@@ -11147,7 +11180,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -11161,12 +11194,12 @@
         <v>512</v>
       </c>
       <c r="J64" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B65" t="s">
         <v>301</v>
@@ -11178,7 +11211,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F65" t="s">
         <v>35</v>
@@ -11192,12 +11225,12 @@
         <v>1028</v>
       </c>
       <c r="J65" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B66" t="s">
         <v>301</v>
@@ -11209,7 +11242,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F66" t="s">
         <v>35</v>
@@ -11223,12 +11256,12 @@
         <v>512</v>
       </c>
       <c r="J66" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B67" t="s">
         <v>301</v>
@@ -11240,7 +11273,7 @@
         <v>13</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
@@ -11254,12 +11287,12 @@
         <v>512</v>
       </c>
       <c r="J67" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B68" t="s">
         <v>301</v>
@@ -11271,7 +11304,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F68" t="s">
         <v>35</v>
@@ -11285,7 +11318,7 @@
         <v>1028</v>
       </c>
       <c r="J68" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -11326,7 +11359,7 @@
         <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F70" t="s">
         <v>35</v>
@@ -11340,7 +11373,7 @@
         <v>10</v>
       </c>
       <c r="J70" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11371,12 +11404,12 @@
         <v>64</v>
       </c>
       <c r="J71" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B72" t="s">
         <v>301</v>
@@ -11388,7 +11421,7 @@
         <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F72" t="s">
         <v>35</v>
@@ -11402,12 +11435,12 @@
         <v>512</v>
       </c>
       <c r="J72" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B73" t="s">
         <v>301</v>
@@ -11419,7 +11452,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F73" t="s">
         <v>35</v>
@@ -11433,7 +11466,7 @@
         <v>1028</v>
       </c>
       <c r="J73" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11521,7 +11554,7 @@
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -11545,7 +11578,7 @@
         <v>jsonIgnore</v>
       </c>
       <c r="J77" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11734,7 +11767,7 @@
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -11746,7 +11779,7 @@
         <v>67</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F85" t="s">
         <v>35</v>
@@ -11757,12 +11790,12 @@
         <v>max</v>
       </c>
       <c r="J85" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -11774,7 +11807,7 @@
         <v>67</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F86" t="s">
         <v>35</v>
@@ -11785,7 +11818,7 @@
         <v>min</v>
       </c>
       <c r="J86" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11871,7 +11904,7 @@
         <v>64</v>
       </c>
       <c r="J89" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11902,7 +11935,7 @@
         <v>64</v>
       </c>
       <c r="J90" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11933,7 +11966,7 @@
         <v>64</v>
       </c>
       <c r="J91" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -12016,7 +12049,7 @@
     </row>
     <row r="95" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -12028,7 +12061,7 @@
         <v>30</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -12155,7 +12188,7 @@
         <v>11</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>643</v>
@@ -12180,7 +12213,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>644</v>
@@ -12586,12 +12619,12 @@
         <v>98</v>
       </c>
       <c r="J116" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -12603,7 +12636,7 @@
         <v>16</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F117" t="s">
         <v>35</v>
@@ -12614,7 +12647,7 @@
         <v>override</v>
       </c>
       <c r="J117" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -12631,7 +12664,7 @@
         <v>16</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -12642,7 +12675,7 @@
         <v>overwrite</v>
       </c>
       <c r="J118" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -12727,7 +12760,7 @@
         <v>15</v>
       </c>
       <c r="J121" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -12783,7 +12816,7 @@
         <v>port</v>
       </c>
       <c r="J123" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -12844,7 +12877,7 @@
     </row>
     <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B126" t="s">
         <v>301</v>
@@ -12856,7 +12889,7 @@
         <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F126" t="s">
         <v>35</v>
@@ -12896,7 +12929,7 @@
     </row>
     <row r="128" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -12908,7 +12941,7 @@
         <v>16</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F128" t="s">
         <v>35</v>
@@ -12919,7 +12952,7 @@
         <v>property</v>
       </c>
       <c r="J128" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -12950,7 +12983,7 @@
         <v>8</v>
       </c>
       <c r="J129" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -13060,7 +13093,7 @@
         <v>4</v>
       </c>
       <c r="J133" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13088,7 +13121,7 @@
         <v>115</v>
       </c>
       <c r="J134" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13116,7 +13149,7 @@
         <v>116</v>
       </c>
       <c r="J135" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13144,7 +13177,7 @@
         <v>117</v>
       </c>
       <c r="J136" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -13174,7 +13207,7 @@
         <v>80</v>
       </c>
       <c r="J137" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13188,7 +13221,7 @@
         <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>118</v>
@@ -13280,7 +13313,7 @@
         <v>shapeType</v>
       </c>
       <c r="J141" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13429,7 +13462,7 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>647</v>
@@ -13499,7 +13532,7 @@
     </row>
     <row r="150" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -13523,12 +13556,12 @@
         <v>staticName</v>
       </c>
       <c r="J150" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -13540,7 +13573,7 @@
         <v>16</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F151" t="s">
         <v>35</v>
@@ -13551,7 +13584,7 @@
         <v>super</v>
       </c>
       <c r="J151" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13750,7 +13783,7 @@
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>10</v>
@@ -13762,7 +13795,7 @@
         <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -13835,7 +13868,7 @@
     </row>
     <row r="162" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -13847,7 +13880,7 @@
         <v>16</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F162" t="s">
         <v>35</v>
@@ -13858,7 +13891,7 @@
         <v>transient</v>
       </c>
       <c r="J162" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13887,7 +13920,7 @@
         <v>unique</v>
       </c>
       <c r="J163" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -13918,7 +13951,7 @@
     </row>
     <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -13945,7 +13978,7 @@
         <v>80</v>
       </c>
       <c r="J165" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -13976,7 +14009,7 @@
         <v>50</v>
       </c>
       <c r="J166" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -14663,12 +14696,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DAA45D-E47E-DC4B-B605-F5E89A10DC22}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14941,7 +14974,7 @@
     </row>
     <row r="8" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>680</v>
@@ -14972,12 +15005,12 @@
         <v>584</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>680</v>
@@ -14996,7 +15029,7 @@
         <v>=&gt;[shapeType].create.tpl</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
@@ -15671,7 +15704,7 @@
         <v>eo.xlsx</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>14</v>
@@ -16085,7 +16118,7 @@
     </row>
     <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>301</v>
@@ -16290,7 +16323,7 @@
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>301</v>
@@ -16387,7 +16420,7 @@
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>680</v>
@@ -16406,7 +16439,7 @@
         <v>ParamsEoConfigs.json</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>14</v>
@@ -16420,7 +16453,7 @@
     </row>
     <row r="53" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>680</v>
@@ -16439,7 +16472,7 @@
         <v>ParamsJava.json</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>14</v>
@@ -16892,10 +16925,10 @@
         <v>272</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>488</v>
